--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
   <si>
     <t>分類</t>
   </si>
@@ -462,6 +462,21 @@
   </si>
   <si>
     <t>279d</t>
+  </si>
+  <si>
+    <t>280a</t>
+  </si>
+  <si>
+    <t>280b</t>
+  </si>
+  <si>
+    <t>280c</t>
+  </si>
+  <si>
+    <t>280d</t>
+  </si>
+  <si>
+    <t>素因数分解まではわかるが、その後の解答方針が理解できない</t>
   </si>
 </sst>
 </file>
@@ -2767,35 +2782,61 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="1"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="E128" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F128" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="1"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="1"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="E130" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="1"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="1"/>
+      <c r="E131" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1"/>

--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="157">
   <si>
     <t>分類</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>素因数分解まではわかるが、その後の解答方針が理解できない</t>
+  </si>
+  <si>
+    <t>282a</t>
+  </si>
+  <si>
+    <t>282b</t>
+  </si>
+  <si>
+    <t>282c</t>
   </si>
 </sst>
 </file>
@@ -2840,26 +2849,44 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="E132" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="1"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="E133" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="1"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="E134" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">

--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="159">
   <si>
     <t>分類</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>282c</t>
+  </si>
+  <si>
+    <t>282d</t>
+  </si>
+  <si>
+    <t>二部グラフや無向グラフの意味が分からない。解法の方針もよくわからない。類題を解くまで飛ばす</t>
   </si>
 </sst>
 </file>
@@ -2891,11 +2897,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="1"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="1"/>
+      <c r="E135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="1"/>

--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="162">
   <si>
     <t>分類</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>二部グラフや無向グラフの意味が分からない。解法の方針もよくわからない。類題を解くまで飛ばす</t>
+  </si>
+  <si>
+    <t>284a</t>
+  </si>
+  <si>
+    <t>284b</t>
+  </si>
+  <si>
+    <t>284c</t>
   </si>
 </sst>
 </file>
@@ -2913,26 +2922,44 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="1"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F136" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="1"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="E137" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F137" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="E138" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.25">

--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
   <si>
     <t>分類</t>
   </si>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>284c</t>
+  </si>
+  <si>
+    <t>286a</t>
+  </si>
+  <si>
+    <t>286b</t>
+  </si>
+  <si>
+    <t>286c</t>
+  </si>
+  <si>
+    <t>286d</t>
+  </si>
+  <si>
+    <t>鉄則本を見ながらなんとか解答できた</t>
   </si>
 </sst>
 </file>
@@ -2846,7 +2861,7 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="21">
       <c r="A131" s="1"/>
       <c r="B131" s="6" t="s">
         <v>123</v>
@@ -2904,7 +2919,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="21">
       <c r="A135" s="1"/>
       <c r="B135" s="6" t="s">
         <v>123</v>
@@ -2948,7 +2963,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="1"/>
       <c r="B138" s="6" t="s">
         <v>123</v>
@@ -2962,39 +2977,65 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="1"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F139" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="1"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F140" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="1"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F141" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="1"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.25">
+      <c r="E142" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="1"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -3002,7 +3043,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="1"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -3010,7 +3051,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="1"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -3018,7 +3059,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="1"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -3026,7 +3067,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="1"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -3034,7 +3075,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="1"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -3042,7 +3083,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="1"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -3050,7 +3091,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="1"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -3058,7 +3099,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="1"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -3066,7 +3107,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="1"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -3074,7 +3115,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="20.25">
       <c r="A153" s="1"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>

--- a/src/atcoder/解いた問題.xlsx
+++ b/src/atcoder/解いた問題.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="172">
   <si>
     <t>分類</t>
   </si>
@@ -516,6 +516,21 @@
   </si>
   <si>
     <t>鉄則本を見ながらなんとか解答できた</t>
+  </si>
+  <si>
+    <t>287a</t>
+  </si>
+  <si>
+    <t>287b</t>
+  </si>
+  <si>
+    <t>287c</t>
+  </si>
+  <si>
+    <t>287d</t>
+  </si>
+  <si>
+    <t>解答見たがなんとなく理解できた。</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2820,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="23.25">
       <c r="A127" s="1"/>
       <c r="B127" s="6" t="s">
         <v>123</v>
@@ -3037,35 +3052,63 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="1"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="E143" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="1"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="E144" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="1"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="1"/>
+      <c r="E145" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="1"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="1"/>
+      <c r="E146" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="1"/>
